--- a/Excels/DialogueContentNode_对话内容节点表.xlsx
+++ b/Excels/DialogueContentNode_对话内容节点表.xlsx
@@ -183,7 +183,7 @@
           <color theme="4"/>
         </top>
         <bottom style="none"/>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -203,7 +203,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
         <horizontal style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
@@ -236,7 +236,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -253,7 +253,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -274,7 +274,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -294,7 +294,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -311,7 +311,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -345,7 +345,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -879,9 +879,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.125"/>
-    <col customWidth="1" min="2" max="2" width="34.625"/>
-    <col customWidth="1" min="3" max="4" width="60.5"/>
+    <col customWidth="1" min="1" max="2" width="12.125"/>
+    <col customWidth="1" min="3" max="3" width="60.5"/>
+    <col customWidth="1" min="4" max="4" width="12.125"/>
     <col customWidth="1" min="5" max="5" width="17.25"/>
   </cols>
   <sheetData>

--- a/Excels/DialogueContentNode_对话内容节点表.xlsx
+++ b/Excels/DialogueContentNode_对话内容节点表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418AFC19-CF2D-46B0-91AF-54ADF41F392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D0171-9DB9-464A-A70F-53C0946B86D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>int</t>
   </si>
@@ -94,6 +94,124 @@
   </si>
   <si>
     <t>Dialogue0008</t>
+  </si>
+  <si>
+    <t>Dialogue0010</t>
+  </si>
+  <si>
+    <t>Dialogue0011</t>
+  </si>
+  <si>
+    <t>Dialogue0012</t>
+  </si>
+  <si>
+    <t>Dialogue0013</t>
+  </si>
+  <si>
+    <t>Dialogue0014</t>
+  </si>
+  <si>
+    <t>Dialogue0015</t>
+  </si>
+  <si>
+    <t>Dialogue0009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0016</t>
+  </si>
+  <si>
+    <t>Dialogue0017</t>
+  </si>
+  <si>
+    <t>Dialogue0018</t>
+  </si>
+  <si>
+    <t>Dialogue0019</t>
+  </si>
+  <si>
+    <t>Dialogue0020</t>
+  </si>
+  <si>
+    <t>Dialogue0021</t>
+  </si>
+  <si>
+    <t>Dialogue0022</t>
+  </si>
+  <si>
+    <t>Dialogue0023</t>
+  </si>
+  <si>
+    <t>Dialogue0024</t>
+  </si>
+  <si>
+    <t>Dialogue0025</t>
+  </si>
+  <si>
+    <t>Dialogue0026</t>
+  </si>
+  <si>
+    <t>Dialogue0027</t>
+  </si>
+  <si>
+    <t>Dialogue0028</t>
+  </si>
+  <si>
+    <t>Dialogue0029</t>
+  </si>
+  <si>
+    <t>Dialogue0030</t>
+  </si>
+  <si>
+    <t>Dialogue0031</t>
+  </si>
+  <si>
+    <t>Dialogue0032</t>
+  </si>
+  <si>
+    <t>Dialogue0033</t>
+  </si>
+  <si>
+    <t>Dialogue0034</t>
+  </si>
+  <si>
+    <t>Dialogue0035</t>
+  </si>
+  <si>
+    <t>Dialogue0036</t>
+  </si>
+  <si>
+    <t>Dialogue0037</t>
+  </si>
+  <si>
+    <t>Dialogue0038</t>
+  </si>
+  <si>
+    <t>Dialogue0039</t>
+  </si>
+  <si>
+    <t>Dialogue0040</t>
+  </si>
+  <si>
+    <t>Dialogue0041</t>
+  </si>
+  <si>
+    <t>Dialogue0042</t>
+  </si>
+  <si>
+    <t>Dialogue0043</t>
+  </si>
+  <si>
+    <t>Dialogue0044</t>
+  </si>
+  <si>
+    <t>Dialogue0045</t>
+  </si>
+  <si>
+    <t>Dialogue0046</t>
+  </si>
+  <si>
+    <t>Dialogue0047</t>
   </si>
 </sst>
 </file>
@@ -469,7 +587,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -652,57 +770,555 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>41</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="65" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="66" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="67" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excels/DialogueContentNode_对话内容节点表.xlsx
+++ b/Excels/DialogueContentNode_对话内容节点表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D0171-9DB9-464A-A70F-53C0946B86D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A230649A-59D6-4147-9DC2-718BBB2C9B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>int</t>
   </si>
@@ -212,6 +212,99 @@
   </si>
   <si>
     <t>Dialogue0047</t>
+  </si>
+  <si>
+    <t>Dialogue0048</t>
+  </si>
+  <si>
+    <t>Dialogue0049</t>
+  </si>
+  <si>
+    <t>Dialogue0050</t>
+  </si>
+  <si>
+    <t>Dialogue0051</t>
+  </si>
+  <si>
+    <t>Dialogue0052</t>
+  </si>
+  <si>
+    <t>Dialogue0053</t>
+  </si>
+  <si>
+    <t>Dialogue0054</t>
+  </si>
+  <si>
+    <t>Dialogue0055</t>
+  </si>
+  <si>
+    <t>Dialogue0056</t>
+  </si>
+  <si>
+    <t>Dialogue0057</t>
+  </si>
+  <si>
+    <t>Dialogue0058</t>
+  </si>
+  <si>
+    <t>Dialogue0059</t>
+  </si>
+  <si>
+    <t>Dialogue0060</t>
+  </si>
+  <si>
+    <t>Dialogue0061</t>
+  </si>
+  <si>
+    <t>Dialogue0062</t>
+  </si>
+  <si>
+    <t>Dialogue0063</t>
+  </si>
+  <si>
+    <t>Dialogue0064</t>
+  </si>
+  <si>
+    <t>Dialogue0065</t>
+  </si>
+  <si>
+    <t>Dialogue0066</t>
+  </si>
+  <si>
+    <t>Dialogue0067</t>
+  </si>
+  <si>
+    <t>Dialogue0068</t>
+  </si>
+  <si>
+    <t>Dialogue0069</t>
+  </si>
+  <si>
+    <t>Dialogue0070</t>
+  </si>
+  <si>
+    <t>Dialogue0071</t>
+  </si>
+  <si>
+    <t>Dialogue0072</t>
+  </si>
+  <si>
+    <t>Dialogue0073</t>
+  </si>
+  <si>
+    <t>Dialogue0074</t>
+  </si>
+  <si>
+    <t>Dialogue0075</t>
+  </si>
+  <si>
+    <t>Dialogue0076</t>
+  </si>
+  <si>
+    <t>Dialogue0077</t>
+  </si>
+  <si>
+    <t>Dialogue0078</t>
   </si>
 </sst>
 </file>
@@ -586,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1307,50 +1400,447 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>49</v>
+      </c>
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>56</v>
+      </c>
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>57</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>58</v>
+      </c>
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>59</v>
+      </c>
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>60</v>
+      </c>
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>61</v>
+      </c>
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>62</v>
+      </c>
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>63</v>
+      </c>
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>64</v>
+      </c>
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2">
+        <v>66</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>66</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>67</v>
+      </c>
+      <c r="B71" s="3">
+        <v>68</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>68</v>
+      </c>
+      <c r="B72" s="3">
+        <v>69</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>69</v>
+      </c>
+      <c r="B73" s="3">
+        <v>70</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3">
+        <v>71</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>71</v>
+      </c>
+      <c r="B75" s="3">
+        <v>72</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>72</v>
+      </c>
+      <c r="B76" s="3">
+        <v>73</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>73</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>74</v>
+      </c>
+      <c r="B78" s="2">
+        <v>75</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>75</v>
+      </c>
+      <c r="B79" s="2">
+        <v>76</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>76</v>
+      </c>
+      <c r="B80" s="2">
+        <v>77</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>77</v>
+      </c>
+      <c r="B81" s="2">
+        <v>78</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="3">
+        <v>9</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>78</v>
+      </c>
+      <c r="B82" s="2">
+        <v>79</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="98" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="99" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excels/DialogueContentNode_对话内容节点表.xlsx
+++ b/Excels/DialogueContentNode_对话内容节点表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A230649A-59D6-4147-9DC2-718BBB2C9B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1716EB-D234-4FB9-8051-E706BB641AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>int</t>
   </si>
@@ -305,6 +305,37 @@
   </si>
   <si>
     <t>Dialogue0078</t>
+  </si>
+  <si>
+    <t>6|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0079</t>
   </si>
 </sst>
 </file>
@@ -679,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -842,6 +873,9 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
+      <c r="B12" s="2">
+        <v>80</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
@@ -876,6 +910,9 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -905,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -919,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -933,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -947,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -961,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -975,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -989,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1003,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1017,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1031,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1045,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1059,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1073,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1084,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1097,8 +1134,11 @@
       <c r="D30" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -1112,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1126,7 +1166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -1140,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -1154,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -1168,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -1182,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -1196,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -1210,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -1224,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -1238,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -1252,7 +1292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -1266,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -1280,7 +1320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -1294,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -1305,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -1318,8 +1358,11 @@
       <c r="D46" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -1333,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -1347,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -1361,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -1375,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -1389,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -1400,7 +1443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -1413,8 +1456,11 @@
       <c r="D53" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -1428,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -1442,7 +1488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -1456,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -1470,7 +1516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -1484,7 +1530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -1498,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -1512,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -1523,7 +1569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -1536,8 +1582,11 @@
       <c r="D62" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -1551,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -1565,7 +1614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -1579,7 +1628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -1593,7 +1642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -1607,7 +1656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -1621,7 +1670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -1635,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -1646,7 +1695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -1659,8 +1708,11 @@
       <c r="D71" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E71" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -1674,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -1688,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -1702,7 +1754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -1716,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -1730,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>73</v>
       </c>
@@ -1741,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -1754,8 +1806,11 @@
       <c r="D78" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E78" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -1769,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -1824,10 +1879,16 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
+      <c r="A84" s="3">
+        <v>80</v>
+      </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="85" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="86" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excels/DialogueContentNode_对话内容节点表.xlsx
+++ b/Excels/DialogueContentNode_对话内容节点表.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1716EB-D234-4FB9-8051-E706BB641AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1A5D5-E8DD-43CF-A502-33772D11BF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="5160" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>int</t>
   </si>
@@ -67,9 +76,6 @@
   </si>
   <si>
     <t>Dialogue0001</t>
-  </si>
-  <si>
-    <t>1|2|5</t>
   </si>
   <si>
     <t>Dialogue0002</t>
@@ -307,35 +313,115 @@
     <t>Dialogue0078</t>
   </si>
   <si>
-    <t>6|5</t>
+    <t>Dialogue0079</t>
+  </si>
+  <si>
+    <t>1|5|2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7|5</t>
+    <t>6|5|2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8|5</t>
+    <t>7|5|2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9|5</t>
+    <t>8|5|2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10|5</t>
+    <t>9|5|2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11|5</t>
+    <t>10|5|2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12|5</t>
+    <t>11|5|2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Dialogue0079</t>
+    <t>12|5|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0080</t>
+  </si>
+  <si>
+    <t>Dialogue0081</t>
+  </si>
+  <si>
+    <t>Dialogue0082</t>
+  </si>
+  <si>
+    <t>Dialogue0083</t>
+  </si>
+  <si>
+    <t>Dialogue0084</t>
+  </si>
+  <si>
+    <t>13|14|5|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0085</t>
+  </si>
+  <si>
+    <t>Dialogue0086</t>
+  </si>
+  <si>
+    <t>Dialogue0087</t>
+  </si>
+  <si>
+    <t>Dialogue0088</t>
+  </si>
+  <si>
+    <t>Dialogue0089</t>
+  </si>
+  <si>
+    <t>15|16|5|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0090</t>
+  </si>
+  <si>
+    <t>Dialogue0091</t>
+  </si>
+  <si>
+    <t>Dialogue0092</t>
+  </si>
+  <si>
+    <t>Dialogue0093</t>
+  </si>
+  <si>
+    <t>Dialogue0094</t>
+  </si>
+  <si>
+    <t>17|18|5|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19|20|5|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0095</t>
+  </si>
+  <si>
+    <t>Dialogue0096</t>
+  </si>
+  <si>
+    <t>Dialogue0097</t>
+  </si>
+  <si>
+    <t>Dialogue0098</t>
+  </si>
+  <si>
+    <t>Dialogue0099</t>
   </si>
 </sst>
 </file>
@@ -710,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -798,8 +884,8 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
+      <c r="E6" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -810,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -824,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -838,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -849,13 +935,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -863,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -877,7 +963,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -888,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -905,13 +991,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -922,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -936,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -950,7 +1036,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -964,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -978,7 +1064,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -992,7 +1078,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -1006,7 +1092,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1020,7 +1106,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -1034,7 +1120,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1048,7 +1134,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -1062,7 +1148,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>3</v>
@@ -1076,7 +1162,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1090,7 +1176,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
@@ -1104,7 +1190,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1115,7 +1201,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
@@ -1129,13 +1215,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1146,7 +1232,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1160,7 +1246,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -1174,7 +1260,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -1188,7 +1274,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -1202,7 +1288,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
@@ -1216,7 +1302,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -1230,7 +1316,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2">
         <v>4</v>
@@ -1244,7 +1330,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -1258,7 +1344,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2">
         <v>4</v>
@@ -1272,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -1286,7 +1372,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
@@ -1300,7 +1386,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -1314,7 +1400,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2">
         <v>4</v>
@@ -1328,7 +1414,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -1339,7 +1425,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2">
         <v>4</v>
@@ -1353,13 +1439,13 @@
         <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="2">
         <v>5</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1370,7 +1456,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -1384,7 +1470,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="2">
         <v>5</v>
@@ -1398,7 +1484,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
@@ -1412,7 +1498,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
@@ -1426,7 +1512,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -1437,7 +1523,7 @@
         <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
@@ -1451,13 +1537,13 @@
         <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2">
         <v>6</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1468,7 +1554,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -1482,7 +1568,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="2">
         <v>6</v>
@@ -1496,7 +1582,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" s="2">
         <v>6</v>
@@ -1510,7 +1596,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="2">
         <v>6</v>
@@ -1524,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="2">
         <v>6</v>
@@ -1538,7 +1624,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59" s="2">
         <v>6</v>
@@ -1552,7 +1638,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
@@ -1563,7 +1649,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" s="2">
         <v>6</v>
@@ -1577,13 +1663,13 @@
         <v>59</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" s="2">
         <v>7</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1594,7 +1680,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
@@ -1608,7 +1694,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="2">
         <v>7</v>
@@ -1622,7 +1708,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D65" s="2">
         <v>7</v>
@@ -1636,7 +1722,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="2">
         <v>7</v>
@@ -1650,7 +1736,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D67" s="2">
         <v>7</v>
@@ -1664,7 +1750,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" s="2">
         <v>7</v>
@@ -1678,7 +1764,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
@@ -1689,7 +1775,7 @@
         <v>66</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" s="2">
         <v>7</v>
@@ -1703,13 +1789,13 @@
         <v>68</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2">
         <v>8</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1720,7 +1806,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -1734,7 +1820,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D73" s="2">
         <v>8</v>
@@ -1748,7 +1834,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D74" s="2">
         <v>8</v>
@@ -1762,7 +1848,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" s="2">
         <v>8</v>
@@ -1776,7 +1862,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
@@ -1787,7 +1873,7 @@
         <v>73</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="2">
         <v>8</v>
@@ -1801,13 +1887,13 @@
         <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D78" s="2">
         <v>9</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1818,7 +1904,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" s="2">
         <v>1</v>
@@ -1832,7 +1918,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D80" s="2">
         <v>9</v>
@@ -1846,7 +1932,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="3">
         <v>9</v>
@@ -1861,7 +1947,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
@@ -1872,7 +1958,7 @@
         <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="2">
         <v>9</v>
@@ -1884,40 +1970,276 @@
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D84" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>81</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" s="2">
+        <v>6</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>82</v>
+      </c>
+      <c r="B86" s="2">
+        <v>83</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>83</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>84</v>
+      </c>
+      <c r="B88" s="2">
+        <v>85</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>85</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D89" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>86</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="2">
+        <v>7</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>87</v>
+      </c>
+      <c r="B91" s="2">
+        <v>88</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>88</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>89</v>
+      </c>
+      <c r="B93" s="2">
+        <v>90</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>90</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>91</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="2">
+        <v>8</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>92</v>
+      </c>
+      <c r="B96" s="2">
+        <v>93</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>93</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>94</v>
+      </c>
+      <c r="B98" s="2">
+        <v>95</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>95</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>96</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" s="2">
+        <v>9</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>97</v>
+      </c>
+      <c r="B101" s="2">
+        <v>98</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>98</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>99</v>
+      </c>
+      <c r="B103" s="2">
+        <v>100</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>100</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="113" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="114" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="115" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excels/DialogueContentNode_对话内容节点表.xlsx
+++ b/Excels/DialogueContentNode_对话内容节点表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1A5D5-E8DD-43CF-A502-33772D11BF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8898CD-3645-40C7-8E79-02B124FF5110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="5160" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2112,7 +2112,7 @@
         <v>113</v>
       </c>
       <c r="D95" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>115</v>
       </c>
       <c r="D97" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2165,7 +2165,7 @@
         <v>117</v>
       </c>
       <c r="D99" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2176,7 +2176,7 @@
         <v>120</v>
       </c>
       <c r="D100" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>119</v>
@@ -2204,7 +2204,7 @@
         <v>122</v>
       </c>
       <c r="D102" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2229,7 +2229,7 @@
         <v>124</v>
       </c>
       <c r="D104" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excels/DialogueContentNode_对话内容节点表.xlsx
+++ b/Excels/DialogueContentNode_对话内容节点表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8898CD-3645-40C7-8E79-02B124FF5110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD027E6-A624-47DA-9861-721F5E6107AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="3165" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t>int</t>
   </si>
@@ -422,6 +422,106 @@
   </si>
   <si>
     <t>Dialogue0099</t>
+  </si>
+  <si>
+    <t>Dialogue0100</t>
+  </si>
+  <si>
+    <t>Dialogue0101</t>
+  </si>
+  <si>
+    <t>Dialogue0102</t>
+  </si>
+  <si>
+    <t>Dialogue0103</t>
+  </si>
+  <si>
+    <t>Dialogue0104</t>
+  </si>
+  <si>
+    <t>Dialogue0105</t>
+  </si>
+  <si>
+    <t>Dialogue0106</t>
+  </si>
+  <si>
+    <t>Dialogue0107</t>
+  </si>
+  <si>
+    <t>Dialogue0108</t>
+  </si>
+  <si>
+    <t>21|22|5|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0109</t>
+  </si>
+  <si>
+    <t>Dialogue0110</t>
+  </si>
+  <si>
+    <t>Dialogue0111</t>
+  </si>
+  <si>
+    <t>Dialogue0112</t>
+  </si>
+  <si>
+    <t>Dialogue0113</t>
+  </si>
+  <si>
+    <t>Dialogue0114</t>
+  </si>
+  <si>
+    <t>Dialogue0115</t>
+  </si>
+  <si>
+    <t>Dialogue0116</t>
+  </si>
+  <si>
+    <t>Dialogue0117</t>
+  </si>
+  <si>
+    <t>Dialogue0118</t>
+  </si>
+  <si>
+    <t>25|26|5|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0120</t>
+  </si>
+  <si>
+    <t>Dialogue0121</t>
+  </si>
+  <si>
+    <t>Dialogue0122</t>
+  </si>
+  <si>
+    <t>Dialogue0123</t>
+  </si>
+  <si>
+    <t>Dialogue0124</t>
+  </si>
+  <si>
+    <t>30|31|5|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0125</t>
+  </si>
+  <si>
+    <t>Dialogue0126</t>
+  </si>
+  <si>
+    <t>Dialogue0127</t>
+  </si>
+  <si>
+    <t>32|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0119</t>
   </si>
 </sst>
 </file>
@@ -796,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2232,46 +2332,389 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="2" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="2" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>101</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>102</v>
+      </c>
+      <c r="B106" s="2">
+        <v>103</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>103</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3</v>
+      </c>
+      <c r="E107" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>104</v>
+      </c>
+      <c r="B108" s="2">
+        <v>105</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>105</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="2">
+        <v>3</v>
+      </c>
+      <c r="E109" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>106</v>
+      </c>
+      <c r="B110" s="2">
+        <v>107</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <v>107</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>108</v>
+      </c>
+      <c r="B112" s="2">
+        <v>109</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>109</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>110</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="2">
+        <v>4</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <v>111</v>
+      </c>
+      <c r="B115" s="2">
+        <v>112</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>112</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D116" s="2">
+        <v>4</v>
+      </c>
+      <c r="E116" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>113</v>
+      </c>
+      <c r="B117" s="2">
+        <v>114</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>114</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" s="2">
+        <v>4</v>
+      </c>
+      <c r="E118" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>115</v>
+      </c>
+      <c r="B119" s="2">
+        <v>116</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>116</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" s="2">
+        <v>4</v>
+      </c>
+      <c r="E120" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>117</v>
+      </c>
+      <c r="B121" s="2">
+        <v>118</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>118</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>119</v>
+      </c>
+      <c r="B123" s="2">
+        <v>120</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>120</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D124" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>121</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D125" s="2">
+        <v>5</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>122</v>
+      </c>
+      <c r="B126" s="2">
+        <v>123</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>123</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>124</v>
+      </c>
+      <c r="B128" s="2">
+        <v>125</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>125</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D129" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>126</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D130" s="2">
+        <v>10</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>127</v>
+      </c>
+      <c r="B131" s="2">
+        <v>128</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>128</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="1:5" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="145" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="146" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="147" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
